--- a/myexcelproject/testscripts/TC001.xlsx
+++ b/myexcelproject/testscripts/TC001.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishna.teja.taduri\git\ExcelTestFramework\myexcelproject\testscripts\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{12F36C76-BADE-4A50-9385-4643254484C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="80" windowWidth="20060" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
@@ -60,14 +66,14 @@
     <t>LoginPage</t>
   </si>
   <si>
-    <t>btn_Login</t>
+    <t>btnHome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +112,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -152,7 +166,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -184,9 +198,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,6 +250,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -393,19 +443,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -425,7 +475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -445,7 +495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -467,29 +517,32 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/myexcelproject/testscripts/TC001.xlsx
+++ b/myexcelproject/testscripts/TC001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishna.teja.taduri\git\ExcelTestFramework\myexcelproject\testscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{12F36C76-BADE-4A50-9385-4643254484C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DEF2BE12-9564-47EC-974B-872B894A6392}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="80" windowWidth="20060" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>Screen</t>
   </si>
@@ -66,7 +66,16 @@
     <t>LoginPage</t>
   </si>
   <si>
-    <t>btnHome</t>
+    <t>ddlSelectName</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>btnLogin</t>
   </si>
 </sst>
 </file>
@@ -444,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,12 +515,29 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" t="s">
         <v>10</v>
       </c>
     </row>

--- a/myexcelproject/testscripts/TC001.xlsx
+++ b/myexcelproject/testscripts/TC001.xlsx
@@ -8,21 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishna.teja.taduri\git\ExcelTestFramework\myexcelproject\testscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DEF2BE12-9564-47EC-974B-872B894A6392}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76A0FCD9-8366-47E9-886D-1748F27EF009}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="80" windowWidth="20060" windowHeight="7940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+  <si>
+    <t>TestCaseName</t>
+  </si>
   <si>
     <t>Screen</t>
   </si>
@@ -39,43 +42,52 @@
     <t>ExecutionFlag</t>
   </si>
   <si>
-    <t>TestCaseName</t>
-  </si>
-  <si>
-    <t>TC001_Login</t>
+    <t>OpenAccount</t>
+  </si>
+  <si>
+    <t>btn_Process</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Pound</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ddl_Name</t>
+  </si>
+  <si>
+    <t>ddl_Currency</t>
   </si>
   <si>
     <t>HomePage</t>
   </si>
   <si>
-    <t>btnCustomerLogin</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                        </t>
-  </si>
-  <si>
-    <t>LoginPage</t>
-  </si>
-  <si>
-    <t>ddlSelectName</t>
-  </si>
-  <si>
-    <t>Select</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>btnLogin</t>
+    <t>btn_ManagerLogin</t>
+  </si>
+  <si>
+    <t>Bank Manager Login</t>
+  </si>
+  <si>
+    <t>btn_OpenAccount</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>TC001_OpenAccount</t>
   </si>
 </sst>
 </file>
@@ -111,7 +123,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -120,7 +133,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -453,97 +466,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/myexcelproject/testscripts/TC001.xlsx
+++ b/myexcelproject/testscripts/TC001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishna.teja.taduri\git\ExcelTestFramework\myexcelproject\testscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{76A0FCD9-8366-47E9-886D-1748F27EF009}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D87CD469-52DD-49A4-97A6-909C17C931D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -78,9 +78,6 @@
     <t>btn_ManagerLogin</t>
   </si>
   <si>
-    <t>Bank Manager Login</t>
-  </si>
-  <si>
     <t>btn_OpenAccount</t>
   </si>
   <si>
@@ -88,6 +85,12 @@
   </si>
   <si>
     <t>TC001_OpenAccount</t>
+  </si>
+  <si>
+    <t>BankManagerLogin</t>
+  </si>
+  <si>
+    <t>FunctionName</t>
   </si>
 </sst>
 </file>
@@ -466,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -478,9 +481,10 @@
     <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.26953125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,13 +500,16 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -516,16 +523,16 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -533,11 +540,11 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -550,11 +557,11 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -567,11 +574,11 @@
       <c r="E5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
@@ -584,11 +591,11 @@
       <c r="E6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -596,12 +603,12 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>13</v>
       </c>
     </row>

--- a/myexcelproject/testscripts/TC001.xlsx
+++ b/myexcelproject/testscripts/TC001.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishna.teja.taduri\git\ExcelTestFramework\myexcelproject\testscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D87CD469-52DD-49A4-97A6-909C17C931D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DA9500-08A1-4B4C-86BC-B305183A100B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14050" windowHeight="4250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -66,31 +66,31 @@
     <t>Y</t>
   </si>
   <si>
+    <t>ddl_Currency</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>btn_ManagerLogin</t>
+  </si>
+  <si>
+    <t>btn_OpenAccount</t>
+  </si>
+  <si>
+    <t>TC001_OpenAccount</t>
+  </si>
+  <si>
+    <t>BankManagerLogin</t>
+  </si>
+  <si>
+    <t>FunctionName</t>
+  </si>
+  <si>
     <t>ddl_Name</t>
   </si>
   <si>
-    <t>ddl_Currency</t>
-  </si>
-  <si>
-    <t>HomePage</t>
-  </si>
-  <si>
-    <t>btn_ManagerLogin</t>
-  </si>
-  <si>
-    <t>btn_OpenAccount</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>TC001_OpenAccount</t>
-  </si>
-  <si>
-    <t>BankManagerLogin</t>
-  </si>
-  <si>
-    <t>FunctionName</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -126,11 +126,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,7 +471,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,7 +500,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -509,13 +508,13 @@
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -529,10 +528,10 @@
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -549,7 +548,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -566,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
@@ -595,21 +594,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
